--- a/DesktopClient/TC_CreateNewCustomer/Main.rvl.xlsx
+++ b/DesktopClient/TC_CreateNewCustomer/Main.rvl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="215">
   <si>
     <t>Offset account</t>
   </si>
@@ -637,6 +637,30 @@
   </si>
   <si>
     <t>Attachment</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>OpenModule</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>FilterGrid</t>
+  </si>
+  <si>
+    <t>SelectFastTab</t>
+  </si>
+  <si>
+    <t>ChooseFile</t>
   </si>
 </sst>
 </file>
@@ -660,7 +684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="127">
+  <borders count="160">
     <border outline="false">
       <left/>
       <right/>
@@ -794,11 +818,44 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
@@ -927,6 +984,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="true"/>
@@ -1225,7 +1315,7 @@
     <outlinePr/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection activeCell="$A$1" sqref="$A$1:$A$1"/>
@@ -1439,212 +1529,244 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
         <v>93</v>
       </c>
-      <c r="G25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="1"/>
+      <c r="G27" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
+      <c r="A28" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="28" t="s">
         <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="29" t="s">
         <v>90</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -1660,83 +1782,83 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
         <v>93</v>
       </c>
-      <c r="G31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" t="s">
-        <v>90</v>
-      </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="32" t="s">
         <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1752,83 +1874,83 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="34" t="s">
         <v>90</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" t="s">
         <v>23</v>
       </c>
-      <c r="E35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
-        <v>101</v>
-      </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
         <v>93</v>
       </c>
-      <c r="G36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" t="s">
-        <v>47</v>
-      </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="37" t="s">
         <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
@@ -1844,950 +1966,909 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="A39" s="60"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="61"/>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
         <v>93</v>
       </c>
-      <c r="G39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="145"/>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="64"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="65"/>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="66"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" t="s">
         <v>23</v>
       </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
       </c>
-      <c r="G41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="60"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="61"/>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="62"/>
-      <c r="B45" t="s">
+      <c r="G49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
         <v>24</v>
-      </c>
-      <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="64"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="65"/>
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" t="s">
-        <v>178</v>
       </c>
       <c r="F50" t="s">
         <v>47</v>
       </c>
       <c r="G50" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="66"/>
+      <c r="A51" s="70"/>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="45" t="s">
-        <v>90</v>
-      </c>
+      <c r="A52" s="71"/>
       <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" t="s">
         <v>23</v>
       </c>
-      <c r="E52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" t="s">
-        <v>90</v>
-      </c>
-      <c r="G52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>101</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>93</v>
       </c>
-      <c r="G53" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" t="s">
-        <v>47</v>
-      </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="70"/>
+      <c r="A55" s="50" t="s">
+        <v>90</v>
+      </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
         <v>47</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="71"/>
+      <c r="A56" s="72"/>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="73"/>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
         <v>65</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>26</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" t="s">
+    <row r="58">
+      <c r="A58" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" t="s">
         <v>23</v>
       </c>
-      <c r="E57" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>101</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>13</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>93</v>
       </c>
-      <c r="G58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" t="s">
-        <v>47</v>
-      </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="72"/>
+      <c r="A60" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
         <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="73"/>
+      <c r="A61" s="74"/>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="E61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="75"/>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
         <v>65</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>26</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" t="s">
+    <row r="63">
+      <c r="A63" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
         <v>23</v>
       </c>
-      <c r="E62" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" t="s">
-        <v>90</v>
-      </c>
-      <c r="G62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
         <v>9</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>101</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>13</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>93</v>
       </c>
-      <c r="G63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" t="s">
-        <v>47</v>
-      </c>
       <c r="G64" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="74"/>
+      <c r="A65" s="56" t="s">
+        <v>90</v>
+      </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="75"/>
+      <c r="A66" s="76"/>
       <c r="B66" t="s">
         <v>1</v>
       </c>
       <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="77"/>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
         <v>65</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>26</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" t="s">
+    <row r="68">
+      <c r="A68" s="78"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" t="s">
         <v>23</v>
       </c>
-      <c r="E67" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" t="s">
-        <v>93</v>
-      </c>
-      <c r="G68" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" t="s">
-        <v>90</v>
-      </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="76"/>
+      <c r="A70" s="58" t="s">
+        <v>90</v>
+      </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" t="s">
+        <v>171</v>
       </c>
       <c r="E70" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="F70" t="s">
         <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="77"/>
+      <c r="A71" s="59" t="s">
+        <v>90</v>
+      </c>
       <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="79"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="81"/>
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="115"/>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="82"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>191</v>
+      </c>
+      <c r="E78" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" t="s">
         <v>1</v>
       </c>
-      <c r="E71" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>192</v>
+      </c>
+      <c r="F79" t="s">
         <v>26</v>
       </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="78"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" t="s">
-        <v>180</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="G79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
         <v>23</v>
       </c>
-      <c r="E73" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" t="s">
-        <v>170</v>
-      </c>
-      <c r="D74" t="s">
-        <v>171</v>
-      </c>
-      <c r="E74" t="s">
-        <v>172</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="E80" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="89"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="111"/>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
         <v>47</v>
       </c>
-      <c r="G74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" t="s">
-        <v>41</v>
-      </c>
-      <c r="D75" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" t="s">
-        <v>60</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="G83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="113"/>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" t="s">
+        <v>93</v>
+      </c>
+      <c r="G84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="112"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="156"/>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" t="s">
         <v>47</v>
       </c>
-      <c r="G75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="79"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="81"/>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>183</v>
-      </c>
-      <c r="E77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G77" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="115"/>
-      <c r="B78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>197</v>
-      </c>
-      <c r="E78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="82"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" t="s">
-        <v>97</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G80" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" t="s">
-        <v>188</v>
-      </c>
-      <c r="D81" t="s">
-        <v>189</v>
-      </c>
-      <c r="E81" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" t="s">
-        <v>191</v>
-      </c>
-      <c r="E82" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" t="s">
-        <v>192</v>
-      </c>
-      <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="G86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D84" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="89"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="111"/>
-      <c r="B87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" t="s">
-        <v>74</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" t="s">
-        <v>193</v>
-      </c>
+      <c r="E87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="1"/>
     </row>
     <row r="88">
-      <c r="A88" s="113"/>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>68</v>
-      </c>
-      <c r="F88" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" t="s">
-        <v>193</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
     </row>
     <row r="89">
-      <c r="A89" s="112"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
     <row r="91">
@@ -2889,36 +2970,6 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
     </row>
   </sheetData>
   <sheetProtection/>
@@ -3150,10 +3201,10 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -3166,7 +3217,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="110"/>
+      <c r="A10" s="160"/>
       <c r="B10" t="s">
         <v>1</v>
       </c>
